--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_116.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_116.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1291208791208791</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.480000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.146, 9.474)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07417582417582418</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2571428571428571</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C:maj', 'G:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.723015, 16.39331)]</t>
+          <t>[['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.82, 37.075)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2869565217391304</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D', 'A']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.38418, 21.737596)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.446618, 13.878853)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:28.800000', '0:00:36.860000'), ('0:01:24', '0:01:30.840000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:30.600000', '0:01:41.180000'), ('0:00:42.440000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:36.120000', '0:01:43.440000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:37.640000', '0:01:45.580000'), ('0:00:17.780000', '0:00:25.400000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.14375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.93228, 54.037586)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0881782945736434</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.883378, 17.038208)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(27.08, 47.9)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1896551724137931</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(52.01, 59.49)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(80.022335, 83.702698)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08030199039121483</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'F:dim', 'E:min7']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim', 'Bb:min7']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.106864, 25.541875)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.34, 3.39)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1768018018018018</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.82, 16.26)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(25.8, 29.46), (14.62, 19.56)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5), (15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1083870967741935</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:min7', 'Bb:min7']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj6/5', 'G:maj6/5', 'G:maj6/2']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(30.01, 33.79)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(86.419433, 88.938798)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_143</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1045673076923077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.704603, 21.995668)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.0, 2.13176)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
